--- a/presentation3/subproblemGraph.xlsx
+++ b/presentation3/subproblemGraph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/leey0227_e_ntu_edu_sg/Documents/Acads/Y2S1/presentation/SC2001/presentation3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B78318B-EBEA-4C67-8C21-252AE9B5113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{0B78318B-EBEA-4C67-8C21-252AE9B5113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E904549-67EB-4E60-A2E5-7D478DA0B671}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BE62131-2D64-41A3-9088-18F79808650E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>C\n</t>
   </si>
@@ -157,11 +157,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96038183-D853-4EC0-8E14-1DC29C887732}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="121" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -532,21 +534,33 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,21 +570,33 @@
       <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -580,16 +606,22 @@
       <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -598,7 +630,9 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,23 +642,33 @@
       <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9</v>
+      </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,21 +678,33 @@
       <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,9 +714,15 @@
       <c r="B13" s="1">
         <v>0</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13</v>
+      </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,8 +732,15 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -680,15 +749,21 @@
       <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -716,39 +791,276 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7</v>
+      </c>
+      <c r="D25" s="6">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>8</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6">
+        <v>7</v>
+      </c>
+      <c r="E30" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>11</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <v>7</v>
+      </c>
+      <c r="D31" s="6">
+        <v>13</v>
+      </c>
+      <c r="E31" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>12</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6">
+        <v>13</v>
+      </c>
+      <c r="E32" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>13</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6">
+        <v>13</v>
+      </c>
+      <c r="E33" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>14</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6">
+        <v>13</v>
+      </c>
+      <c r="E34" s="6">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
